--- a/Study_Questions_v0.1 200_modified.xlsx
+++ b/Study_Questions_v0.1 200_modified.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/luis_a_castaneda_mx_ey_com/Documents/Documents/GitHub/DAMA/dama_quiz_app/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_685963E0E5D3C93D212C4CA53DA92807787A840D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="1271">
   <si>
     <t>AreaId</t>
   </si>
@@ -3811,7 +3805,13 @@
 The other options listed in the question do not represent the standard architecture domains in widely recognized enterprise architecture frameworks.</t>
   </si>
   <si>
+    <t>1.3.5.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.3.2.4 </t>
+  </si>
+  <si>
+    <t>1.3.12.2.1</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.10 data capture deltas </t>
@@ -3831,13 +3831,16 @@
   </si>
   <si>
     <t>2.4 Develop Organizational touchpoints</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3900,14 +3903,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3954,7 +3949,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3986,27 +3981,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4038,24 +4015,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4231,16 +4190,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4284,7 +4241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4316,7 +4273,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4348,7 +4305,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4380,7 +4337,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4412,7 +4369,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4444,7 +4401,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4476,7 +4433,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4507,8 +4464,11 @@
       <c r="J8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4540,7 +4500,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4572,7 +4532,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4604,7 +4564,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4636,7 +4596,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4671,7 +4631,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4703,7 +4663,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>2</v>
       </c>
@@ -4735,7 +4695,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>2</v>
       </c>
@@ -4767,7 +4727,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4799,7 +4759,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>3</v>
       </c>
@@ -4831,7 +4791,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4863,7 +4823,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4895,7 +4855,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>3</v>
       </c>
@@ -4927,7 +4887,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>3</v>
       </c>
@@ -4959,7 +4919,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4991,7 +4951,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>3</v>
       </c>
@@ -5023,7 +4983,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>3</v>
       </c>
@@ -5055,7 +5015,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>3</v>
       </c>
@@ -5087,7 +5047,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>3</v>
       </c>
@@ -5119,7 +5079,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>3</v>
       </c>
@@ -5151,7 +5111,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>3</v>
       </c>
@@ -5183,7 +5143,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>4</v>
       </c>
@@ -5214,8 +5174,11 @@
       <c r="J30" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>4</v>
       </c>
@@ -5247,7 +5210,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>4</v>
       </c>
@@ -5279,7 +5242,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>4</v>
       </c>
@@ -5311,7 +5274,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>4</v>
       </c>
@@ -5343,7 +5306,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>4</v>
       </c>
@@ -5375,7 +5338,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>4</v>
       </c>
@@ -5407,7 +5370,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>4</v>
       </c>
@@ -5439,7 +5402,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>4</v>
       </c>
@@ -5471,7 +5434,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>4</v>
       </c>
@@ -5503,7 +5466,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>4</v>
       </c>
@@ -5538,7 +5501,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>4</v>
       </c>
@@ -5570,7 +5533,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>4</v>
       </c>
@@ -5602,7 +5565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>4</v>
       </c>
@@ -5634,7 +5597,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>5</v>
       </c>
@@ -5666,7 +5629,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>5</v>
       </c>
@@ -5698,7 +5661,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>5</v>
       </c>
@@ -5730,7 +5693,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>5</v>
       </c>
@@ -5762,7 +5725,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>5</v>
       </c>
@@ -5794,7 +5757,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>5</v>
       </c>
@@ -5826,7 +5789,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>5</v>
       </c>
@@ -5857,8 +5820,11 @@
       <c r="J50" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>5</v>
       </c>
@@ -5890,7 +5856,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>5</v>
       </c>
@@ -5922,7 +5888,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>5</v>
       </c>
@@ -5954,7 +5920,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>5</v>
       </c>
@@ -5986,7 +5952,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>5</v>
       </c>
@@ -6018,7 +5984,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>5</v>
       </c>
@@ -6050,7 +6016,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>5</v>
       </c>
@@ -6082,7 +6048,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>5</v>
       </c>
@@ -6114,7 +6080,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>5</v>
       </c>
@@ -6145,8 +6111,14 @@
       <c r="J59" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L59" t="s">
+        <v>1261</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>5</v>
       </c>
@@ -6178,7 +6150,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>5</v>
       </c>
@@ -6210,7 +6182,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>5</v>
       </c>
@@ -6241,8 +6213,11 @@
       <c r="J62" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>5</v>
       </c>
@@ -6274,7 +6249,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>5</v>
       </c>
@@ -6306,7 +6281,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14">
       <c r="A65">
         <v>5</v>
       </c>
@@ -6338,7 +6313,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14">
       <c r="A66">
         <v>6</v>
       </c>
@@ -6370,7 +6345,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14">
       <c r="A67">
         <v>6</v>
       </c>
@@ -6402,7 +6377,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14">
       <c r="A68">
         <v>6</v>
       </c>
@@ -6434,7 +6409,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14">
       <c r="A69">
         <v>6</v>
       </c>
@@ -6466,7 +6441,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14">
       <c r="A70">
         <v>6</v>
       </c>
@@ -6498,7 +6473,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14">
       <c r="A71">
         <v>6</v>
       </c>
@@ -6530,10 +6505,13 @@
         <v>1139</v>
       </c>
       <c r="L71" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1262</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72">
         <v>6</v>
       </c>
@@ -6565,7 +6543,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14">
       <c r="A73">
         <v>6</v>
       </c>
@@ -6597,7 +6575,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14">
       <c r="A74">
         <v>6</v>
       </c>
@@ -6628,8 +6606,11 @@
       <c r="J74" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75">
         <v>6</v>
       </c>
@@ -6661,7 +6642,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14">
       <c r="A76">
         <v>6</v>
       </c>
@@ -6693,7 +6674,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14">
       <c r="A77">
         <v>6</v>
       </c>
@@ -6716,7 +6697,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14">
       <c r="A78">
         <v>6</v>
       </c>
@@ -6748,7 +6729,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14">
       <c r="A79">
         <v>6</v>
       </c>
@@ -6780,7 +6761,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14">
       <c r="A80">
         <v>6</v>
       </c>
@@ -6812,7 +6793,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14">
       <c r="A81">
         <v>6</v>
       </c>
@@ -6844,7 +6825,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14">
       <c r="A82">
         <v>6</v>
       </c>
@@ -6876,7 +6857,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14">
       <c r="A83">
         <v>6</v>
       </c>
@@ -6908,7 +6889,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14">
       <c r="A84">
         <v>7</v>
       </c>
@@ -6937,7 +6918,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14">
       <c r="A85">
         <v>7</v>
       </c>
@@ -6969,7 +6950,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14">
       <c r="A86">
         <v>7</v>
       </c>
@@ -6997,8 +6978,11 @@
       <c r="I86" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87">
         <v>7</v>
       </c>
@@ -7030,7 +7014,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14">
       <c r="A88">
         <v>7</v>
       </c>
@@ -7062,7 +7046,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14">
       <c r="A89">
         <v>7</v>
       </c>
@@ -7094,7 +7078,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14">
       <c r="A90">
         <v>7</v>
       </c>
@@ -7123,7 +7107,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14">
       <c r="A91">
         <v>7</v>
       </c>
@@ -7155,7 +7139,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14">
       <c r="A92">
         <v>7</v>
       </c>
@@ -7190,7 +7174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14">
       <c r="A93">
         <v>7</v>
       </c>
@@ -7219,7 +7203,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14">
       <c r="A94">
         <v>7</v>
       </c>
@@ -7251,7 +7235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14">
       <c r="A95">
         <v>7</v>
       </c>
@@ -7280,7 +7264,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14">
       <c r="A96">
         <v>7</v>
       </c>
@@ -7309,7 +7293,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14">
       <c r="A97">
         <v>7</v>
       </c>
@@ -7340,8 +7324,11 @@
       <c r="J97" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98">
         <v>7</v>
       </c>
@@ -7370,7 +7357,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14">
       <c r="A99">
         <v>7</v>
       </c>
@@ -7399,7 +7386,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14">
       <c r="A100">
         <v>7</v>
       </c>
@@ -7427,8 +7414,11 @@
       <c r="I100" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101">
         <v>7</v>
       </c>
@@ -7459,8 +7449,14 @@
       <c r="J101" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L101" t="s">
+        <v>1263</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102">
         <v>8</v>
       </c>
@@ -7492,7 +7488,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14">
       <c r="A103">
         <v>8</v>
       </c>
@@ -7524,7 +7520,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14">
       <c r="A104">
         <v>8</v>
       </c>
@@ -7556,7 +7552,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14">
       <c r="A105">
         <v>8</v>
       </c>
@@ -7588,7 +7584,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14">
       <c r="A106">
         <v>8</v>
       </c>
@@ -7620,7 +7616,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14">
       <c r="A107">
         <v>8</v>
       </c>
@@ -7652,7 +7648,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14">
       <c r="A108">
         <v>8</v>
       </c>
@@ -7683,8 +7679,11 @@
       <c r="J108" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109">
         <v>8</v>
       </c>
@@ -7716,7 +7715,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14">
       <c r="A110">
         <v>8</v>
       </c>
@@ -7747,8 +7746,11 @@
       <c r="J110" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111">
         <v>8</v>
       </c>
@@ -7779,8 +7781,11 @@
       <c r="J111" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112">
         <v>8</v>
       </c>
@@ -7812,7 +7817,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14">
       <c r="A113">
         <v>8</v>
       </c>
@@ -7844,7 +7849,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14">
       <c r="A114">
         <v>8</v>
       </c>
@@ -7876,7 +7881,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14">
       <c r="A115">
         <v>8</v>
       </c>
@@ -7907,8 +7912,11 @@
       <c r="J115" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116">
         <v>8</v>
       </c>
@@ -7940,7 +7948,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14">
       <c r="A117">
         <v>8</v>
       </c>
@@ -7972,7 +7980,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14">
       <c r="A118">
         <v>8</v>
       </c>
@@ -8004,7 +8012,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14">
       <c r="A119">
         <v>8</v>
       </c>
@@ -8036,10 +8044,10 @@
         <v>1170</v>
       </c>
       <c r="L119" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120">
         <v>8</v>
       </c>
@@ -8071,7 +8079,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14">
       <c r="A121">
         <v>8</v>
       </c>
@@ -8103,7 +8111,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14">
       <c r="A122">
         <v>8</v>
       </c>
@@ -8135,7 +8143,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14">
       <c r="A123">
         <v>8</v>
       </c>
@@ -8167,7 +8175,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14">
       <c r="A124">
         <v>8</v>
       </c>
@@ -8199,7 +8207,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14">
       <c r="A125">
         <v>8</v>
       </c>
@@ -8231,7 +8239,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14">
       <c r="A126">
         <v>9</v>
       </c>
@@ -8263,7 +8271,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14">
       <c r="A127">
         <v>9</v>
       </c>
@@ -8294,8 +8302,11 @@
       <c r="J127" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128">
         <v>9</v>
       </c>
@@ -8327,7 +8338,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13">
       <c r="A129">
         <v>9</v>
       </c>
@@ -8359,7 +8370,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13">
       <c r="A130">
         <v>9</v>
       </c>
@@ -8391,7 +8402,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13">
       <c r="A131">
         <v>9</v>
       </c>
@@ -8423,7 +8434,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13">
       <c r="A132">
         <v>9</v>
       </c>
@@ -8455,7 +8466,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13">
       <c r="A133">
         <v>9</v>
       </c>
@@ -8487,10 +8498,10 @@
         <v>1184</v>
       </c>
       <c r="L133" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134">
         <v>9</v>
       </c>
@@ -8521,8 +8532,11 @@
       <c r="J134" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135">
         <v>9</v>
       </c>
@@ -8554,7 +8568,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13">
       <c r="A136">
         <v>9</v>
       </c>
@@ -8576,8 +8590,11 @@
       <c r="G136" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137">
         <v>10</v>
       </c>
@@ -8609,7 +8626,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13">
       <c r="A138">
         <v>10</v>
       </c>
@@ -8641,7 +8658,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13">
       <c r="A139">
         <v>10</v>
       </c>
@@ -8673,7 +8690,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13">
       <c r="A140">
         <v>10</v>
       </c>
@@ -8705,7 +8722,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13">
       <c r="A141">
         <v>10</v>
       </c>
@@ -8737,7 +8754,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13">
       <c r="A142">
         <v>10</v>
       </c>
@@ -8769,10 +8786,10 @@
         <v>1189</v>
       </c>
       <c r="L142" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143">
         <v>10</v>
       </c>
@@ -8804,7 +8821,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13">
       <c r="A144">
         <v>10</v>
       </c>
@@ -8836,7 +8853,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12">
       <c r="A145">
         <v>10</v>
       </c>
@@ -8868,7 +8885,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12">
       <c r="A146">
         <v>10</v>
       </c>
@@ -8900,7 +8917,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12">
       <c r="A147">
         <v>10</v>
       </c>
@@ -8923,7 +8940,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12">
       <c r="A148">
         <v>10</v>
       </c>
@@ -8955,7 +8972,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12">
       <c r="A149">
         <v>10</v>
       </c>
@@ -8987,7 +9004,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12">
       <c r="A150">
         <v>10</v>
       </c>
@@ -9010,7 +9027,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12">
       <c r="A151">
         <v>10</v>
       </c>
@@ -9042,7 +9059,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12">
       <c r="A152">
         <v>10</v>
       </c>
@@ -9074,7 +9091,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12">
       <c r="A153">
         <v>10</v>
       </c>
@@ -9106,7 +9123,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12">
       <c r="A154">
         <v>11</v>
       </c>
@@ -9129,7 +9146,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12">
       <c r="A155">
         <v>11</v>
       </c>
@@ -9161,10 +9178,10 @@
         <v>1199</v>
       </c>
       <c r="L155" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156">
         <v>11</v>
       </c>
@@ -9196,7 +9213,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12">
       <c r="A157">
         <v>11</v>
       </c>
@@ -9228,7 +9245,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12">
       <c r="A158">
         <v>11</v>
       </c>
@@ -9260,7 +9277,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12">
       <c r="A159">
         <v>11</v>
       </c>
@@ -9292,7 +9309,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12">
       <c r="A160">
         <v>11</v>
       </c>
@@ -9324,7 +9341,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12">
       <c r="A161">
         <v>11</v>
       </c>
@@ -9356,7 +9373,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12">
       <c r="A162">
         <v>11</v>
       </c>
@@ -9388,7 +9405,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12">
       <c r="A163">
         <v>11</v>
       </c>
@@ -9420,7 +9437,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12">
       <c r="A164">
         <v>11</v>
       </c>
@@ -9452,7 +9469,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12">
       <c r="A165">
         <v>11</v>
       </c>
@@ -9484,7 +9501,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12">
       <c r="A166">
         <v>12</v>
       </c>
@@ -9516,7 +9533,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12">
       <c r="A167">
         <v>12</v>
       </c>
@@ -9548,7 +9565,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12">
       <c r="A168">
         <v>12</v>
       </c>
@@ -9580,7 +9597,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12">
       <c r="A169">
         <v>12</v>
       </c>
@@ -9612,7 +9629,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12">
       <c r="A170">
         <v>12</v>
       </c>
@@ -9644,7 +9661,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12">
       <c r="A171">
         <v>12</v>
       </c>
@@ -9667,7 +9684,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12">
       <c r="A172">
         <v>12</v>
       </c>
@@ -9699,7 +9716,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12">
       <c r="A173">
         <v>12</v>
       </c>
@@ -9731,7 +9748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12">
       <c r="A174">
         <v>12</v>
       </c>
@@ -9763,7 +9780,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12">
       <c r="A175">
         <v>12</v>
       </c>
@@ -9795,10 +9812,10 @@
         <v>1215</v>
       </c>
       <c r="L175" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176">
         <v>12</v>
       </c>
@@ -9830,7 +9847,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14">
       <c r="A177">
         <v>12</v>
       </c>
@@ -9859,7 +9876,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14">
       <c r="A178">
         <v>12</v>
       </c>
@@ -9888,7 +9905,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14">
       <c r="A179">
         <v>13</v>
       </c>
@@ -9920,7 +9937,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14">
       <c r="A180">
         <v>13</v>
       </c>
@@ -9952,7 +9969,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14">
       <c r="A181">
         <v>13</v>
       </c>
@@ -9984,7 +10001,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14">
       <c r="A182">
         <v>13</v>
       </c>
@@ -10016,7 +10033,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14">
       <c r="A183">
         <v>13</v>
       </c>
@@ -10048,7 +10065,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14">
       <c r="A184">
         <v>13</v>
       </c>
@@ -10080,7 +10097,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14">
       <c r="A185">
         <v>13</v>
       </c>
@@ -10112,7 +10129,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14">
       <c r="A186">
         <v>13</v>
       </c>
@@ -10144,7 +10161,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14">
       <c r="A187">
         <v>13</v>
       </c>
@@ -10176,7 +10193,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14">
       <c r="A188">
         <v>13</v>
       </c>
@@ -10208,7 +10225,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14">
       <c r="A189">
         <v>13</v>
       </c>
@@ -10240,7 +10257,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14">
       <c r="A190">
         <v>13</v>
       </c>
@@ -10272,7 +10289,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14">
       <c r="A191">
         <v>13</v>
       </c>
@@ -10303,8 +10320,11 @@
       <c r="J191" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192">
         <v>13</v>
       </c>
@@ -10336,7 +10356,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12">
       <c r="A193">
         <v>13</v>
       </c>
@@ -10368,7 +10388,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12">
       <c r="A194">
         <v>13</v>
       </c>
@@ -10400,7 +10420,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12">
       <c r="A195">
         <v>14</v>
       </c>
@@ -10432,7 +10452,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12">
       <c r="A196">
         <v>14</v>
       </c>
@@ -10464,7 +10484,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12">
       <c r="A197">
         <v>14</v>
       </c>
@@ -10496,7 +10516,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12">
       <c r="A198">
         <v>14</v>
       </c>
@@ -10528,7 +10548,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12">
       <c r="A199">
         <v>14</v>
       </c>
@@ -10560,7 +10580,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12">
       <c r="A200">
         <v>14</v>
       </c>
@@ -10592,7 +10612,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12">
       <c r="A201">
         <v>14</v>
       </c>
@@ -10624,7 +10644,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12">
       <c r="A202">
         <v>3</v>
       </c>
@@ -10656,7 +10676,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12">
       <c r="A203">
         <v>3</v>
       </c>
@@ -10688,7 +10708,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12">
       <c r="A204">
         <v>3</v>
       </c>
@@ -10720,10 +10740,10 @@
         <v>1242</v>
       </c>
       <c r="L204" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205">
         <v>3</v>
       </c>
@@ -10755,7 +10775,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12">
       <c r="A206">
         <v>9</v>
       </c>
@@ -10787,7 +10807,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12">
       <c r="A207">
         <v>9</v>
       </c>
@@ -10819,7 +10839,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12">
       <c r="A208">
         <v>9</v>
       </c>
@@ -10848,7 +10868,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14">
       <c r="A209">
         <v>9</v>
       </c>
@@ -10880,7 +10900,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14">
       <c r="A210">
         <v>5</v>
       </c>
@@ -10912,7 +10932,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14">
       <c r="A211">
         <v>12</v>
       </c>
@@ -10944,7 +10964,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14">
       <c r="A212">
         <v>12</v>
       </c>
@@ -10976,7 +10996,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14">
       <c r="A213">
         <v>12</v>
       </c>
@@ -11008,7 +11028,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14">
       <c r="A214">
         <v>12</v>
       </c>
@@ -11040,7 +11060,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14">
       <c r="A215">
         <v>12</v>
       </c>
@@ -11071,8 +11091,11 @@
       <c r="J215" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216">
         <v>7</v>
       </c>
@@ -11104,7 +11127,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14">
       <c r="A217">
         <v>7</v>
       </c>
@@ -11136,7 +11159,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14">
       <c r="A218">
         <v>11</v>
       </c>
@@ -11165,7 +11188,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14">
       <c r="A219">
         <v>11</v>
       </c>
@@ -11197,7 +11220,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14">
       <c r="A220">
         <v>13</v>
       </c>
@@ -11229,7 +11252,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14">
       <c r="A221">
         <v>10</v>
       </c>
@@ -11260,8 +11283,11 @@
       <c r="J221" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222">
         <v>10</v>
       </c>
@@ -11293,7 +11319,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14">
       <c r="A223">
         <v>10</v>
       </c>
@@ -11324,8 +11350,14 @@
       <c r="J223" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L223" t="s">
+        <v>1270</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224">
         <v>14</v>
       </c>
